--- a/种别编码表.xlsx
+++ b/种别编码表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9084"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>类型</t>
   </si>
@@ -28,10 +28,13 @@
     <t>关键字</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>double</t>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
   <si>
     <t>char</t>
@@ -40,10 +43,19 @@
     <t>bool</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>void</t>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>program</t>
   </si>
   <si>
     <t>read</t>
@@ -55,9 +67,21 @@
     <t>for</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>while</t>
   </si>
   <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
@@ -73,6 +97,21 @@
     <t>false</t>
   </si>
   <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>算符</t>
   </si>
   <si>
@@ -85,46 +124,28 @@
     <t>*</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
   <si>
     <t>&gt;</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>&lt;=</t>
   </si>
   <si>
     <t>&gt;=</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>!=</t>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>:=</t>
   </si>
   <si>
     <t>标识符</t>
@@ -139,40 +160,46 @@
     <t>整型</t>
   </si>
   <si>
-    <t>浮点型</t>
+    <t>实型</t>
   </si>
   <si>
     <t>字符型</t>
   </si>
   <si>
+    <t>布尔型</t>
+  </si>
+  <si>
     <t>字符串型</t>
   </si>
   <si>
     <t>界符</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
     <t>(</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>;</t>
+    <t>_</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
   <si>
     <t>/*</t>
@@ -186,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +227,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -207,8 +264,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,14 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -254,14 +342,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,74 +364,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,31 +380,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,156 +560,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -599,17 +626,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,38 +680,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,16 +703,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,137 +756,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,13 +908,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1219,118 +1259,118 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
     </row>
@@ -1339,7 +1379,7 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
     </row>
@@ -1348,320 +1388,393 @@
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1" t="s">
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/种别编码表.xlsx
+++ b/种别编码表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>类型</t>
   </si>
@@ -160,7 +160,13 @@
     <t>整型</t>
   </si>
   <si>
+    <t>整数</t>
+  </si>
+  <si>
     <t>实型</t>
+  </si>
+  <si>
+    <t>实数</t>
   </si>
   <si>
     <t>字符型</t>
@@ -913,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,15 +1245,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1263,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1277,14 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1274,14 +1292,26 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1293,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -1301,14 +1331,26 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1338,13 +1380,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1383,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -1391,14 +1439,26 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1419,7 +1479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
@@ -1427,8 +1487,14 @@
       <c r="C20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1436,8 +1502,14 @@
       <c r="C21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -1445,8 +1517,14 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="8" t="s">
         <v>25</v>
@@ -1454,8 +1532,14 @@
       <c r="C23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="8" t="s">
         <v>26</v>
@@ -1463,14 +1547,26 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1482,7 +1578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -1490,8 +1586,14 @@
       <c r="C27" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1499,8 +1601,14 @@
       <c r="C28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
@@ -1508,8 +1616,14 @@
       <c r="C29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1633,14 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>34</v>
@@ -1528,8 +1648,14 @@
       <c r="C31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -1537,8 +1663,14 @@
       <c r="C32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -1546,8 +1678,14 @@
       <c r="C33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -1555,8 +1693,14 @@
       <c r="C34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -1564,8 +1708,14 @@
       <c r="C35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>39</v>
@@ -1573,8 +1723,14 @@
       <c r="C36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
@@ -1582,8 +1738,14 @@
       <c r="C37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
@@ -1591,8 +1753,14 @@
       <c r="C38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>42</v>
@@ -1600,8 +1768,14 @@
       <c r="C39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>43</v>
@@ -1609,8 +1783,14 @@
       <c r="C40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1620,8 +1800,14 @@
       <c r="C41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1631,20 +1817,32 @@
       <c r="C42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3">
         <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3">
         <v>43</v>
@@ -1653,7 +1851,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3">
         <v>44</v>
@@ -1662,72 +1860,108 @@
     <row r="46" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5"/>
       <c r="B48" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="5"/>
       <c r="B50" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5"/>
       <c r="B51" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="5"/>
       <c r="B52" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3">
         <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5"/>
       <c r="B53" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3">
         <v>52</v>
@@ -1735,8 +1969,8 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5"/>
-      <c r="B54" s="9" t="s">
-        <v>60</v>
+      <c r="B54" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C54" s="3">
         <v>53</v>
@@ -1745,7 +1979,7 @@
     <row r="55" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" s="3">
         <v>54</v>
@@ -1754,7 +1988,7 @@
     <row r="56" spans="1:3">
       <c r="A56" s="5"/>
       <c r="B56" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3">
         <v>55</v>
@@ -1763,7 +1997,7 @@
     <row r="57" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3">
         <v>56</v>
